--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="142">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -266,6 +272,9 @@
     <t>idAnsc</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.riconoscimentoPaternoConSentenza,=,true}</t>
+  </si>
+  <si>
     <t>Provincia registrazione</t>
   </si>
   <si>
@@ -338,6 +347,9 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.riconoscimentoPaternoConSentenza,=,false}</t>
+  </si>
+  <si>
     <t>Estremi documento</t>
   </si>
   <si>
@@ -380,6 +392,9 @@
     <t>evento.riconoscimentoMadre.atto</t>
   </si>
   <si>
+    <t>{evento.riconoscimentoMadre.avvenuto,=,false}</t>
+  </si>
+  <si>
     <t>Atto Nascita Intestatario</t>
   </si>
   <si>
@@ -390,6 +405,9 @@
   </si>
   <si>
     <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -478,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -490,6 +508,7 @@
     <col min="4" max="4" width="40.42578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="33.6796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="65.75390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -511,105 +530,123 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -631,2805 +668,3228 @@
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>sceltaCognome</t>
+  </si>
+  <si>
+    <t>Nuovo cognome</t>
+  </si>
+  <si>
+    <t>nuovoCognome</t>
   </si>
   <si>
     <t>Madre</t>
@@ -496,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -789,22 +795,22 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>21</v>
@@ -812,22 +818,22 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>21</v>
@@ -835,7 +841,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>38</v>
@@ -844,7 +850,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>39</v>
@@ -858,7 +864,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
@@ -867,7 +873,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>41</v>
@@ -881,7 +887,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>42</v>
@@ -890,7 +896,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>43</v>
@@ -904,7 +910,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>44</v>
@@ -913,7 +919,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>45</v>
@@ -927,16 +933,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
@@ -950,7 +956,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>48</v>
@@ -959,7 +965,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>49</v>
@@ -973,7 +979,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>50</v>
@@ -982,7 +988,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
@@ -996,7 +1002,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>52</v>
@@ -1005,7 +1011,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>53</v>
@@ -1019,16 +1025,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>55</v>
@@ -1042,7 +1048,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>56</v>
@@ -1051,7 +1057,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>57</v>
@@ -1065,7 +1071,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>58</v>
@@ -1074,7 +1080,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>59</v>
@@ -1088,7 +1094,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>60</v>
@@ -1097,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>61</v>
@@ -1111,16 +1117,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>63</v>
@@ -1134,7 +1140,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>64</v>
@@ -1143,7 +1149,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>65</v>
@@ -1157,7 +1163,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>66</v>
@@ -1166,7 +1172,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>67</v>
@@ -1180,7 +1186,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>68</v>
@@ -1189,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>69</v>
@@ -1203,7 +1209,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>70</v>
@@ -1212,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>71</v>
@@ -1226,16 +1232,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>73</v>
@@ -1249,7 +1255,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>74</v>
@@ -1258,7 +1264,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>75</v>
@@ -1272,7 +1278,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>76</v>
@@ -1281,7 +1287,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>77</v>
@@ -1295,22 +1301,22 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>21</v>
@@ -1318,22 +1324,22 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>21</v>
@@ -1341,7 +1347,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>38</v>
@@ -1350,7 +1356,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>39</v>
@@ -1364,7 +1370,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>40</v>
@@ -1373,7 +1379,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>41</v>
@@ -1387,7 +1393,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>42</v>
@@ -1396,7 +1402,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>43</v>
@@ -1410,7 +1416,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>44</v>
@@ -1419,7 +1425,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>45</v>
@@ -1433,16 +1439,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>47</v>
@@ -1456,7 +1462,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>48</v>
@@ -1465,7 +1471,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>49</v>
@@ -1479,7 +1485,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>50</v>
@@ -1488,7 +1494,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>51</v>
@@ -1502,7 +1508,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>52</v>
@@ -1511,7 +1517,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>53</v>
@@ -1525,16 +1531,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>55</v>
@@ -1548,7 +1554,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>56</v>
@@ -1557,7 +1563,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>57</v>
@@ -1571,7 +1577,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>58</v>
@@ -1580,7 +1586,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>59</v>
@@ -1594,7 +1600,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>60</v>
@@ -1603,7 +1609,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>61</v>
@@ -1617,16 +1623,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>63</v>
@@ -1640,7 +1646,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>64</v>
@@ -1649,7 +1655,7 @@
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>65</v>
@@ -1663,7 +1669,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>66</v>
@@ -1672,7 +1678,7 @@
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>67</v>
@@ -1686,7 +1692,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>68</v>
@@ -1695,7 +1701,7 @@
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>69</v>
@@ -1709,7 +1715,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>70</v>
@@ -1718,7 +1724,7 @@
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>71</v>
@@ -1732,16 +1738,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>73</v>
@@ -1755,7 +1761,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>74</v>
@@ -1764,7 +1770,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>75</v>
@@ -1778,7 +1784,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>76</v>
@@ -1787,7 +1793,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>77</v>
@@ -1804,19 +1810,19 @@
         <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>21</v>
@@ -1824,22 +1830,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>21</v>
@@ -1847,7 +1853,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>38</v>
@@ -1856,7 +1862,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>39</v>
@@ -1870,7 +1876,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>40</v>
@@ -1879,7 +1885,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>41</v>
@@ -1893,7 +1899,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>42</v>
@@ -1902,7 +1908,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>43</v>
@@ -1916,7 +1922,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>44</v>
@@ -1925,7 +1931,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>45</v>
@@ -1939,16 +1945,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>47</v>
@@ -1962,7 +1968,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>48</v>
@@ -1971,13 +1977,13 @@
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>21</v>
@@ -1985,7 +1991,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>50</v>
@@ -1994,13 +2000,13 @@
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>21</v>
@@ -2008,7 +2014,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>52</v>
@@ -2017,13 +2023,13 @@
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>21</v>
@@ -2031,22 +2037,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>21</v>
@@ -2054,7 +2060,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>56</v>
@@ -2063,7 +2069,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>57</v>
@@ -2077,7 +2083,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>58</v>
@@ -2086,7 +2092,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>59</v>
@@ -2100,7 +2106,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>60</v>
@@ -2109,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>61</v>
@@ -2123,16 +2129,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>63</v>
@@ -2146,7 +2152,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>64</v>
@@ -2155,13 +2161,13 @@
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>21</v>
@@ -2169,7 +2175,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>66</v>
@@ -2178,13 +2184,13 @@
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>21</v>
@@ -2192,7 +2198,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>68</v>
@@ -2201,13 +2207,13 @@
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>21</v>
@@ -2215,7 +2221,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>70</v>
@@ -2224,7 +2230,7 @@
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>71</v>
@@ -2238,22 +2244,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>21</v>
@@ -2261,7 +2267,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>74</v>
@@ -2270,7 +2276,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>75</v>
@@ -2284,7 +2290,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>76</v>
@@ -2293,7 +2299,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>77</v>
@@ -2310,50 +2316,50 @@
         <v>82</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E80" s="2" t="s">
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>89</v>
@@ -2362,7 +2368,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>90</v>
@@ -2371,12 +2377,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>91</v>
@@ -2385,7 +2391,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>92</v>
@@ -2394,12 +2400,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>93</v>
@@ -2408,7 +2414,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>94</v>
@@ -2417,12 +2423,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>95</v>
@@ -2431,7 +2437,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>96</v>
@@ -2440,12 +2446,12 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>97</v>
@@ -2454,44 +2460,44 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>100</v>
@@ -2500,67 +2506,67 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>105</v>
@@ -2569,7 +2575,7 @@
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>106</v>
@@ -2578,58 +2584,58 @@
         <v>16</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>114</v>
@@ -2638,7 +2644,7 @@
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>115</v>
@@ -2647,12 +2653,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>116</v>
@@ -2661,7 +2667,7 @@
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>117</v>
@@ -2670,12 +2676,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>118</v>
@@ -2684,7 +2690,7 @@
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>119</v>
@@ -2693,12 +2699,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>120</v>
@@ -2707,7 +2713,7 @@
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>121</v>
@@ -2716,12 +2722,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>122</v>
@@ -2730,7 +2736,7 @@
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>123</v>
@@ -2739,58 +2745,58 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>89</v>
@@ -2799,7 +2805,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>90</v>
@@ -2808,12 +2814,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>91</v>
@@ -2822,7 +2828,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>92</v>
@@ -2831,12 +2837,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>93</v>
@@ -2845,7 +2851,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>94</v>
@@ -2854,12 +2860,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>95</v>
@@ -2868,7 +2874,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>96</v>
@@ -2877,12 +2883,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>97</v>
@@ -2891,44 +2897,44 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>100</v>
@@ -2937,67 +2943,67 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>105</v>
@@ -3006,7 +3012,7 @@
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>106</v>
@@ -3015,47 +3021,47 @@
         <v>16</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110" s="2" t="s">
+      <c r="E110" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3066,7 +3072,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>89</v>
@@ -3075,7 +3081,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>90</v>
@@ -3089,7 +3095,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>91</v>
@@ -3098,7 +3104,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>92</v>
@@ -3112,7 +3118,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>93</v>
@@ -3121,7 +3127,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>94</v>
@@ -3135,7 +3141,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>95</v>
@@ -3144,7 +3150,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>96</v>
@@ -3158,7 +3164,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>97</v>
@@ -3167,10 +3173,10 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3181,19 +3187,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3204,7 +3210,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>100</v>
@@ -3213,10 +3219,10 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3227,19 +3233,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3250,16 +3256,16 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>104</v>
@@ -3273,7 +3279,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>105</v>
@@ -3282,7 +3288,7 @@
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>106</v>
@@ -3299,7 +3305,7 @@
         <v>129</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>13</v>
@@ -3308,27 +3314,27 @@
         <v>130</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>37</v>
@@ -3337,12 +3343,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>38</v>
@@ -3351,7 +3357,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>39</v>
@@ -3360,12 +3366,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>40</v>
@@ -3374,7 +3380,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>41</v>
@@ -3383,12 +3389,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>42</v>
@@ -3397,7 +3403,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>43</v>
@@ -3406,12 +3412,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>44</v>
@@ -3420,7 +3426,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>45</v>
@@ -3429,21 +3435,21 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>47</v>
@@ -3452,12 +3458,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>48</v>
@@ -3466,7 +3472,7 @@
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>49</v>
@@ -3475,12 +3481,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>50</v>
@@ -3489,7 +3495,7 @@
         <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>51</v>
@@ -3498,12 +3504,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>52</v>
@@ -3512,7 +3518,7 @@
         <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>53</v>
@@ -3521,21 +3527,21 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>55</v>
@@ -3544,12 +3550,12 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>56</v>
@@ -3558,7 +3564,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>57</v>
@@ -3567,12 +3573,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>58</v>
@@ -3581,7 +3587,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>59</v>
@@ -3590,12 +3596,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>60</v>
@@ -3604,7 +3610,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>61</v>
@@ -3613,21 +3619,21 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>63</v>
@@ -3636,12 +3642,12 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>64</v>
@@ -3650,7 +3656,7 @@
         <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>65</v>
@@ -3659,12 +3665,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>66</v>
@@ -3673,7 +3679,7 @@
         <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>67</v>
@@ -3682,12 +3688,12 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>68</v>
@@ -3696,7 +3702,7 @@
         <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>69</v>
@@ -3705,12 +3711,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>70</v>
@@ -3719,7 +3725,7 @@
         <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>71</v>
@@ -3728,21 +3734,21 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>73</v>
@@ -3751,12 +3757,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>74</v>
@@ -3765,7 +3771,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>75</v>
@@ -3774,12 +3780,12 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>76</v>
@@ -3788,7 +3794,7 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>77</v>
@@ -3797,44 +3803,44 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="E144" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>137</v>
@@ -3848,16 +3854,16 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>139</v>
@@ -3871,7 +3877,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>140</v>
@@ -3880,7 +3886,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>141</v>
@@ -3889,6 +3895,29 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,37 +32,40 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Copia dell'atto di riconoscimento effettuato dell'altro genitore</t>
+  </si>
+  <si>
+    <t>Copia dell'atto di riconoscimento</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Sentenza del Tribunale che autorizza al riconoscimento senza il consenso dell'altro genitore</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>114-sexies</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Copia dell'atto di riconoscimento effettuato dell'altro genitore</t>
-  </si>
-  <si>
-    <t>Copia dell'atto di riconoscimento</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Sentenza del Tribunale che autorizza al riconoscimento senza il consenso dell'altro genitore</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>114-sexies</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -675,3250 +678,3250 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
@@ -281,7 +281,7 @@
     <t>idAnsc</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.riconoscimentoPaternoConSentenza,=,true}</t>
+    <t>evento.trascrizioneNascita.riconoscimentoPaternoConSentenza,=,true</t>
   </si>
   <si>
     <t>Provincia registrazione</t>
@@ -356,7 +356,7 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.riconoscimentoPaternoConSentenza,=,false}</t>
+    <t>evento.trascrizioneNascita.riconoscimentoPaternoConSentenza,=,false</t>
   </si>
   <si>
     <t>Estremi documento</t>
@@ -401,7 +401,7 @@
     <t>evento.riconoscimentoMadre.atto</t>
   </si>
   <si>
-    <t>{evento.riconoscimentoMadre.avvenuto,=,false}</t>
+    <t>evento.riconoscimentoMadre.avvenuto,=,false</t>
   </si>
   <si>
     <t>Atto Nascita Intestatario</t>
@@ -416,7 +416,7 @@
     <t>evento.interprete</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -517,7 +517,7 @@
     <col min="4" max="4" width="40.42578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="33.6796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="65.75390625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="64.37109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -185,6 +185,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -326,22 +332,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Sentenza di paternità</t>
@@ -505,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1057,7 +1063,7 @@
         <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>37</v>
@@ -1149,7 +1155,7 @@
         <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>37</v>
@@ -1264,7 +1270,7 @@
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>37</v>
@@ -1327,22 +1333,22 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>22</v>
@@ -1350,22 +1356,22 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>22</v>
@@ -1373,19 +1379,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1396,19 +1402,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1419,19 +1425,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1442,19 +1448,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1465,19 +1471,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1488,19 +1494,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1511,19 +1517,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1534,19 +1540,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1557,19 +1563,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1580,19 +1586,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1603,19 +1609,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1626,19 +1632,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1649,19 +1655,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1672,19 +1678,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1695,19 +1701,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1718,19 +1724,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1741,19 +1747,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1764,19 +1770,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1787,19 +1793,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1810,19 +1816,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1836,19 +1842,19 @@
         <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>22</v>
@@ -1859,7 +1865,7 @@
         <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -1868,7 +1874,7 @@
         <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1879,22 +1885,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>22</v>
@@ -1902,19 +1908,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1925,19 +1931,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1948,19 +1954,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1971,19 +1977,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1994,22 +2000,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>22</v>
@@ -2017,19 +2023,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2040,19 +2046,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>16</v>
@@ -2063,19 +2069,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2086,22 +2092,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>22</v>
@@ -2109,22 +2115,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>22</v>
@@ -2132,19 +2138,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2155,19 +2161,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2178,22 +2184,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>22</v>
@@ -2201,19 +2207,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2224,22 +2230,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>22</v>
@@ -2247,19 +2253,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>16</v>
@@ -2270,19 +2276,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2293,22 +2299,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>22</v>
@@ -2316,22 +2322,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>22</v>
@@ -2342,22 +2348,22 @@
         <v>85</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81">
@@ -2365,22 +2371,22 @@
         <v>85</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82">
@@ -2388,752 +2394,752 @@
         <v>85</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
+      <c r="E113" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3144,19 +3150,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3167,19 +3173,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3190,19 +3196,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3213,19 +3219,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3236,19 +3242,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3259,19 +3265,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3282,19 +3288,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3305,19 +3311,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3331,7 +3337,7 @@
         <v>132</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>13</v>
@@ -3340,13 +3346,13 @@
         <v>133</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124">
@@ -3354,22 +3360,22 @@
         <v>132</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125">
@@ -3377,7 +3383,7 @@
         <v>132</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3386,541 +3392,633 @@
         <v>133</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="E145" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="E148" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
+      <c r="E152" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -422,7 +422,10 @@
     <t>evento.interprete</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -523,7 +526,7 @@
     <col min="4" max="4" width="40.42578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="33.6796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="64.37109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3912,7 +3915,7 @@
         <v>134</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -3932,19 +3935,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3955,19 +3958,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3978,10 +3981,10 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -3990,7 +3993,7 @@
         <v>20</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4001,10 +4004,10 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4013,7 +4016,7 @@
         <v>31</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -423,9 +423,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3915,7 +3912,7 @@
         <v>134</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -3935,19 +3932,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
+      <c r="E149" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3958,19 +3955,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3981,10 +3978,10 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -3993,7 +3990,7 @@
         <v>20</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4004,10 +4001,10 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4016,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3912,7 +3915,7 @@
         <v>134</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -3932,19 +3935,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3955,19 +3958,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3978,10 +3981,10 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -3990,7 +3993,7 @@
         <v>20</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4001,10 +4004,10 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4013,7 +4016,7 @@
         <v>31</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="165">
   <si>
     <t>Sezione</t>
   </si>
@@ -65,6 +65,24 @@
     <t>114-sexies</t>
   </si>
   <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -263,6 +281,36 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
+  </si>
+  <si>
     <t>Padre</t>
   </si>
   <si>
@@ -420,6 +468,9 @@
   </si>
   <si>
     <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>195,196</t>
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
@@ -514,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -668,256 +719,256 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>22</v>
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -925,7 +976,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -934,13 +985,13 @@
         <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -948,7 +999,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -957,3072 +1008,3532 @@
         <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E111" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>22</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="167">
   <si>
     <t>Sezione</t>
   </si>
@@ -155,6 +155,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -209,13 +215,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -565,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H172"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1071,7 +1077,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>43</v>
@@ -1163,7 +1169,7 @@
         <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>43</v>
@@ -1278,7 +1284,7 @@
         <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>43</v>
@@ -1370,7 +1376,7 @@
         <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>43</v>
@@ -1485,7 +1491,7 @@
         <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>43</v>
@@ -1554,7 +1560,7 @@
         <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>43</v>
@@ -1663,22 +1669,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>28</v>
@@ -1686,22 +1692,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>28</v>
@@ -1709,19 +1715,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1732,19 +1738,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1755,19 +1761,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1778,19 +1784,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1801,19 +1807,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1824,19 +1830,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1847,19 +1853,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1870,19 +1876,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1893,19 +1899,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1916,19 +1922,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1939,19 +1945,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1962,19 +1968,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1985,19 +1991,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2008,19 +2014,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2031,19 +2037,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2054,19 +2060,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2077,19 +2083,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2100,19 +2106,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2123,19 +2129,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2146,19 +2152,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2169,19 +2175,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2192,19 +2198,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2215,19 +2221,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2238,19 +2244,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2261,19 +2267,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2284,19 +2290,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2310,7 +2316,7 @@
         <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
@@ -2319,10 +2325,10 @@
         <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>28</v>
@@ -2333,16 +2339,16 @@
         <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2353,22 +2359,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>28</v>
@@ -2376,19 +2382,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2399,19 +2405,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2422,19 +2428,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2445,19 +2451,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2468,22 +2474,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>28</v>
@@ -2491,19 +2497,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2514,22 +2520,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>28</v>
@@ -2537,19 +2543,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>16</v>
@@ -2560,19 +2566,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2583,22 +2589,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>28</v>
@@ -2606,22 +2612,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>28</v>
@@ -2629,19 +2635,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2652,19 +2658,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2675,22 +2681,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>28</v>
@@ -2698,19 +2704,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2721,22 +2727,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>28</v>
@@ -2744,19 +2750,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>16</v>
@@ -2767,19 +2773,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2790,22 +2796,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>28</v>
@@ -2813,22 +2819,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>28</v>
@@ -2836,19 +2842,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2859,22 +2865,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>28</v>
@@ -2882,19 +2888,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2905,22 +2911,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>28</v>
@@ -2931,22 +2937,22 @@
         <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104">
@@ -2954,22 +2960,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105">
@@ -2977,752 +2983,752 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="E134" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="E135" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
+      <c r="E136" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3733,19 +3739,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3756,19 +3762,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3779,19 +3785,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3802,19 +3808,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3825,19 +3831,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3848,19 +3854,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3871,19 +3877,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3894,19 +3900,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3920,7 +3926,7 @@
         <v>150</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>13</v>
@@ -3929,13 +3935,13 @@
         <v>151</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147">
@@ -3943,22 +3949,22 @@
         <v>150</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148">
@@ -3966,7 +3972,7 @@
         <v>150</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -3975,564 +3981,656 @@
         <v>151</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G168" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B172" s="2" t="s">
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E172" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
+      <c r="E176" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="169">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -571,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1353,7 +1359,7 @@
         <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>43</v>
@@ -1376,7 +1382,7 @@
         <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>43</v>
@@ -1514,7 +1520,7 @@
         <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>43</v>
@@ -1583,7 +1589,7 @@
         <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>43</v>
@@ -1692,22 +1698,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>28</v>
@@ -1715,22 +1721,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>28</v>
@@ -1738,19 +1744,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1761,19 +1767,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1784,19 +1790,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1807,19 +1813,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1830,19 +1836,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1853,19 +1859,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1876,19 +1882,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1899,19 +1905,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1922,19 +1928,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1945,19 +1951,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1968,19 +1974,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1991,19 +1997,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2014,19 +2020,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2037,19 +2043,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2060,19 +2066,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2083,19 +2089,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2106,19 +2112,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2129,19 +2135,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2152,19 +2158,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2175,19 +2181,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2198,19 +2204,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2221,19 +2227,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2244,19 +2250,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2267,19 +2273,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2290,19 +2296,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2313,19 +2319,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2336,19 +2342,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2362,7 +2368,7 @@
         <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
@@ -2371,10 +2377,10 @@
         <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>28</v>
@@ -2385,16 +2391,16 @@
         <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2405,22 +2411,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>28</v>
@@ -2428,19 +2434,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2451,19 +2457,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2474,19 +2480,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2497,19 +2503,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2520,19 +2526,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2543,22 +2549,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>28</v>
@@ -2566,19 +2572,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2589,19 +2595,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>16</v>
@@ -2612,22 +2618,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>28</v>
@@ -2635,22 +2641,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>28</v>
@@ -2658,22 +2664,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>28</v>
@@ -2681,19 +2687,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2704,19 +2710,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2727,22 +2733,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>28</v>
@@ -2750,22 +2756,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>28</v>
@@ -2773,22 +2779,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>28</v>
@@ -2796,22 +2802,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>28</v>
@@ -2819,19 +2825,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>16</v>
@@ -2842,19 +2848,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2865,22 +2871,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>28</v>
@@ -2888,22 +2894,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>28</v>
@@ -2911,19 +2917,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2934,22 +2940,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>28</v>
@@ -2957,19 +2963,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2980,22 +2986,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>28</v>
@@ -3006,22 +3012,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107">
@@ -3029,22 +3035,22 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108">
@@ -3052,752 +3058,752 @@
         <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="E137" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="E138" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="E139" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3808,19 +3814,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3831,19 +3837,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3854,19 +3860,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3877,19 +3883,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3900,19 +3906,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3923,19 +3929,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3946,19 +3952,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3969,19 +3975,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3995,7 +4001,7 @@
         <v>152</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>13</v>
@@ -4004,13 +4010,13 @@
         <v>153</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150">
@@ -4018,22 +4024,22 @@
         <v>152</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151">
@@ -4041,596 +4047,688 @@
         <v>152</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F172" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G172" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B176" s="2" t="s">
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
+      <c r="E180" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="171">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -577,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1543,7 +1549,7 @@
         <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>43</v>
@@ -1612,7 +1618,7 @@
         <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>43</v>
@@ -1721,22 +1727,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>28</v>
@@ -1744,22 +1750,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>28</v>
@@ -1767,19 +1773,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1790,19 +1796,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1813,19 +1819,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1836,19 +1842,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1865,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1888,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1905,19 +1911,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1928,19 +1934,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1951,19 +1957,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1974,19 +1980,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1997,19 +2003,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2020,19 +2026,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2043,19 +2049,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2066,19 +2072,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2089,19 +2095,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2112,19 +2118,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2135,19 +2141,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2158,19 +2164,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2181,19 +2187,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2204,19 +2210,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2227,19 +2233,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2250,19 +2256,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2273,19 +2279,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2296,19 +2302,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2319,19 +2325,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2342,19 +2348,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2365,19 +2371,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2388,19 +2394,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2414,7 +2420,7 @@
         <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
@@ -2423,10 +2429,10 @@
         <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>28</v>
@@ -2437,16 +2443,16 @@
         <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2457,22 +2463,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>28</v>
@@ -2480,19 +2486,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2503,19 +2509,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2532,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2555,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2572,19 +2578,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2595,22 +2601,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>28</v>
@@ -2618,19 +2624,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2641,19 +2647,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>16</v>
@@ -2664,22 +2670,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>28</v>
@@ -2687,22 +2693,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>28</v>
@@ -2710,22 +2716,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>28</v>
@@ -2733,22 +2739,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>28</v>
@@ -2756,19 +2762,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2779,19 +2785,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>16</v>
@@ -2802,22 +2808,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>28</v>
@@ -2825,22 +2831,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>28</v>
@@ -2848,22 +2854,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>28</v>
@@ -2871,22 +2877,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>28</v>
@@ -2894,19 +2900,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>16</v>
@@ -2917,19 +2923,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2940,22 +2946,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>28</v>
@@ -2963,22 +2969,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>28</v>
@@ -2986,19 +2992,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3009,22 +3015,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>28</v>
@@ -3032,19 +3038,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3055,22 +3061,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>28</v>
@@ -3081,22 +3087,22 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110">
@@ -3104,22 +3110,22 @@
         <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111">
@@ -3127,752 +3133,752 @@
         <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D140" s="2" t="s">
+      <c r="E140" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
+      <c r="E141" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
+      <c r="E142" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3883,19 +3889,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3906,19 +3912,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3929,19 +3935,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3952,19 +3958,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3975,19 +3981,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3998,19 +4004,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4021,19 +4027,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4044,19 +4050,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4070,7 +4076,7 @@
         <v>154</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>13</v>
@@ -4079,13 +4085,13 @@
         <v>155</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153">
@@ -4093,22 +4099,22 @@
         <v>154</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>155</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154">
@@ -4116,619 +4122,711 @@
         <v>154</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>155</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F176" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G176" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B180" s="2" t="s">
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" s="2" t="s">
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
+      <c r="E184" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="173">
   <si>
     <t>Sezione</t>
   </si>
@@ -408,6 +408,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -583,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H184"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3412,7 +3418,7 @@
         <v>132</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>111</v>
@@ -3421,7 +3427,7 @@
         <v>133</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>113</v>
@@ -3429,53 +3435,53 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E125" s="2" t="s">
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>141</v>
@@ -3484,7 +3490,7 @@
         <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>142</v>
@@ -3493,12 +3499,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>143</v>
@@ -3507,7 +3513,7 @@
         <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>144</v>
@@ -3516,12 +3522,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>145</v>
@@ -3530,7 +3536,7 @@
         <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>146</v>
@@ -3539,12 +3545,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>147</v>
@@ -3553,7 +3559,7 @@
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>148</v>
@@ -3562,12 +3568,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>149</v>
@@ -3576,7 +3582,7 @@
         <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>150</v>
@@ -3585,346 +3591,346 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C131" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="E143" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="E144" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3935,19 +3941,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3958,19 +3964,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3981,19 +3987,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4004,19 +4010,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4027,19 +4033,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4050,19 +4056,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4073,19 +4079,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4096,19 +4102,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4119,19 +4125,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4145,7 +4151,7 @@
         <v>156</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>13</v>
@@ -4154,13 +4160,13 @@
         <v>157</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156">
@@ -4168,22 +4174,22 @@
         <v>156</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157">
@@ -4191,642 +4197,711 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F180" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G180" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
+      <c r="E187" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
@@ -4499,7 +4499,7 @@
         <v>67</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>159</v>
@@ -4522,7 +4522,7 @@
         <v>69</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>159</v>
@@ -4531,7 +4531,7 @@
         <v>70</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>161</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -165,6 +165,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -589,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:H195"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1141,7 +1153,7 @@
         <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>43</v>
@@ -1164,7 +1176,7 @@
         <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>43</v>
@@ -1210,7 +1222,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>43</v>
@@ -1233,7 +1245,7 @@
         <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>43</v>
@@ -1325,7 +1337,7 @@
         <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>43</v>
@@ -1348,7 +1360,7 @@
         <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>43</v>
@@ -1371,7 +1383,7 @@
         <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>43</v>
@@ -1394,7 +1406,7 @@
         <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>43</v>
@@ -1578,7 +1590,7 @@
         <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>43</v>
@@ -1601,7 +1613,7 @@
         <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>43</v>
@@ -1647,7 +1659,7 @@
         <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>43</v>
@@ -1670,7 +1682,7 @@
         <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>43</v>
@@ -1756,22 +1768,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>28</v>
@@ -1779,19 +1791,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1802,22 +1814,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>28</v>
@@ -1825,19 +1837,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1848,19 +1860,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1871,19 +1883,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1894,19 +1906,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1917,19 +1929,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1940,19 +1952,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1963,19 +1975,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1986,19 +1998,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2009,19 +2021,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2032,19 +2044,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2055,19 +2067,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2078,19 +2090,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2101,19 +2113,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2124,19 +2136,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2147,19 +2159,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2170,19 +2182,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2193,19 +2205,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2216,19 +2228,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2239,19 +2251,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2274,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2285,19 +2297,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2308,19 +2320,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2343,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2354,19 +2366,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2377,19 +2389,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2400,19 +2412,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2423,19 +2435,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2446,19 +2458,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2469,22 +2481,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>28</v>
@@ -2492,19 +2504,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2527,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2538,19 +2550,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2561,22 +2573,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>28</v>
@@ -2584,19 +2596,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2607,19 +2619,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2630,19 +2642,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2653,22 +2665,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>28</v>
@@ -2676,22 +2688,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>28</v>
@@ -2699,22 +2711,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>28</v>
@@ -2722,22 +2734,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>28</v>
@@ -2745,19 +2757,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2768,19 +2780,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2791,19 +2803,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>16</v>
@@ -2814,22 +2826,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>28</v>
@@ -2837,22 +2849,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>28</v>
@@ -2860,19 +2872,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>16</v>
@@ -2883,19 +2895,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2906,22 +2918,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>28</v>
@@ -2929,22 +2941,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>28</v>
@@ -2952,19 +2964,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>16</v>
@@ -2975,22 +2987,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>28</v>
@@ -2998,22 +3010,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>28</v>
@@ -3021,19 +3033,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3044,22 +3056,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>28</v>
@@ -3067,19 +3079,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3090,19 +3102,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>16</v>
@@ -3113,22 +3125,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>28</v>
@@ -3136,22 +3148,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>28</v>
@@ -3159,916 +3171,916 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4079,19 +4091,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4102,19 +4114,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4125,19 +4137,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4148,19 +4160,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4171,19 +4183,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4194,19 +4206,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4217,691 +4229,875 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="E184" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D185" s="2" t="s">
+      <c r="E185" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E186" s="2" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="E187" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="2" t="s">
+      <c r="C193" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E187" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
+      <c r="E195" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_003.xlsx
@@ -50,10 +50,10 @@
     <t>Copia dell'atto di riconoscimento effettuato dell'altro genitore</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>Copia dell'atto di riconoscimento</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>Sentenza del Tribunale che autorizza al riconoscimento senza il consenso dell'altro genitore</t>
@@ -670,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -690,10 +690,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -716,7 +716,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -762,7 +762,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -785,7 +785,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -808,7 +808,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -831,7 +831,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -854,7 +854,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -877,7 +877,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -1061,7 +1061,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>43</v>
@@ -1107,7 +1107,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>43</v>
@@ -1153,7 +1153,7 @@
         <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>43</v>
@@ -1176,7 +1176,7 @@
         <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>43</v>
@@ -1268,7 +1268,7 @@
         <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>43</v>
@@ -1291,7 +1291,7 @@
         <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>43</v>
@@ -1314,7 +1314,7 @@
         <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>43</v>
@@ -1337,7 +1337,7 @@
         <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>43</v>
@@ -1360,7 +1360,7 @@
         <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>43</v>
@@ -1429,7 +1429,7 @@
         <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>43</v>
@@ -1452,7 +1452,7 @@
         <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>43</v>
@@ -1475,7 +1475,7 @@
         <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>43</v>
@@ -1498,7 +1498,7 @@
         <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>43</v>
@@ -1521,7 +1521,7 @@
         <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>43</v>
@@ -1544,7 +1544,7 @@
         <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>43</v>
@@ -1567,7 +1567,7 @@
         <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>43</v>
@@ -1590,7 +1590,7 @@
         <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>43</v>
@@ -1613,7 +1613,7 @@
         <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>43</v>
@@ -1705,7 +1705,7 @@
         <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>43</v>
@@ -1728,7 +1728,7 @@
         <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>43</v>
@@ -1751,7 +1751,7 @@
         <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>43</v>
@@ -1774,7 +1774,7 @@
         <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>43</v>
@@ -1797,7 +1797,7 @@
         <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>43</v>
@@ -1820,7 +1820,7 @@
         <v>42</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>110</v>
@@ -1866,7 +1866,7 @@
         <v>47</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>110</v>
@@ -1912,7 +1912,7 @@
         <v>51</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>110</v>
@@ -1935,7 +1935,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>110</v>
@@ -2027,7 +2027,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>110</v>
@@ -2050,7 +2050,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>110</v>
@@ -2073,7 +2073,7 @@
         <v>65</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>110</v>
@@ -2096,7 +2096,7 @@
         <v>67</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>110</v>
@@ -2119,7 +2119,7 @@
         <v>69</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>110</v>
@@ -2188,7 +2188,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>110</v>
@@ -2211,7 +2211,7 @@
         <v>77</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>110</v>
@@ -2234,7 +2234,7 @@
         <v>79</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>110</v>
@@ -2257,7 +2257,7 @@
         <v>81</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>110</v>
@@ -2280,7 +2280,7 @@
         <v>83</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>110</v>
@@ -2303,7 +2303,7 @@
         <v>85</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>110</v>
@@ -2326,7 +2326,7 @@
         <v>87</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>110</v>
@@ -2349,7 +2349,7 @@
         <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>110</v>
@@ -2372,7 +2372,7 @@
         <v>91</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>110</v>
@@ -2464,7 +2464,7 @@
         <v>99</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>110</v>
@@ -2487,7 +2487,7 @@
         <v>101</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>110</v>
@@ -2510,7 +2510,7 @@
         <v>103</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>110</v>
@@ -2533,7 +2533,7 @@
         <v>105</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>110</v>
@@ -2556,7 +2556,7 @@
         <v>107</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>110</v>
@@ -2579,7 +2579,7 @@
         <v>42</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>112</v>
@@ -2625,7 +2625,7 @@
         <v>47</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>112</v>
@@ -2671,7 +2671,7 @@
         <v>51</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>112</v>
@@ -2694,7 +2694,7 @@
         <v>53</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>112</v>
@@ -2786,7 +2786,7 @@
         <v>61</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>112</v>
@@ -2809,7 +2809,7 @@
         <v>63</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>112</v>
@@ -2832,7 +2832,7 @@
         <v>65</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>112</v>
@@ -2855,7 +2855,7 @@
         <v>67</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>112</v>
@@ -2878,7 +2878,7 @@
         <v>69</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>112</v>
@@ -2947,7 +2947,7 @@
         <v>75</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>112</v>
@@ -2970,7 +2970,7 @@
         <v>77</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>112</v>
@@ -2993,7 +2993,7 @@
         <v>79</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>112</v>
@@ -3016,7 +3016,7 @@
         <v>81</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>112</v>
@@ -3039,7 +3039,7 @@
         <v>83</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>112</v>
@@ -3062,7 +3062,7 @@
         <v>85</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>112</v>
@@ -3085,7 +3085,7 @@
         <v>87</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>112</v>
@@ -3108,7 +3108,7 @@
         <v>89</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>112</v>
@@ -3131,7 +3131,7 @@
         <v>91</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>112</v>
@@ -3223,7 +3223,7 @@
         <v>99</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>112</v>
@@ -3246,7 +3246,7 @@
         <v>101</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>112</v>
@@ -3269,7 +3269,7 @@
         <v>103</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>112</v>
@@ -3292,7 +3292,7 @@
         <v>105</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>112</v>
@@ -3315,7 +3315,7 @@
         <v>114</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>115</v>
@@ -3522,7 +3522,7 @@
         <v>132</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>115</v>
@@ -3545,7 +3545,7 @@
         <v>134</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>115</v>
@@ -3568,7 +3568,7 @@
         <v>136</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>115</v>
@@ -3614,7 +3614,7 @@
         <v>141</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>142</v>
@@ -3637,7 +3637,7 @@
         <v>145</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>142</v>
@@ -3660,7 +3660,7 @@
         <v>147</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>142</v>
@@ -3683,7 +3683,7 @@
         <v>149</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>142</v>
@@ -3706,7 +3706,7 @@
         <v>151</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>142</v>
@@ -3729,7 +3729,7 @@
         <v>153</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>142</v>
@@ -3752,7 +3752,7 @@
         <v>155</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>142</v>
@@ -3775,7 +3775,7 @@
         <v>114</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>158</v>
@@ -3982,7 +3982,7 @@
         <v>132</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>158</v>
@@ -4005,7 +4005,7 @@
         <v>134</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>158</v>
@@ -4028,7 +4028,7 @@
         <v>136</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>158</v>
@@ -4074,7 +4074,7 @@
         <v>114</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>161</v>
@@ -4281,7 +4281,7 @@
         <v>132</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>161</v>
@@ -4304,7 +4304,7 @@
         <v>134</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>161</v>
@@ -4327,7 +4327,7 @@
         <v>136</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>161</v>
@@ -4373,7 +4373,7 @@
         <v>42</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>163</v>
@@ -4419,7 +4419,7 @@
         <v>47</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>163</v>
@@ -4465,7 +4465,7 @@
         <v>51</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>163</v>
@@ -4488,7 +4488,7 @@
         <v>53</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>163</v>
@@ -4580,7 +4580,7 @@
         <v>61</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>163</v>
@@ -4603,7 +4603,7 @@
         <v>63</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>163</v>
@@ -4626,7 +4626,7 @@
         <v>65</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>163</v>
@@ -4649,7 +4649,7 @@
         <v>67</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>163</v>
@@ -4672,7 +4672,7 @@
         <v>69</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>163</v>
@@ -4695,7 +4695,7 @@
         <v>71</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>163</v>
@@ -4718,7 +4718,7 @@
         <v>73</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>163</v>
@@ -4741,7 +4741,7 @@
         <v>75</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>163</v>
@@ -4764,7 +4764,7 @@
         <v>77</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>163</v>
@@ -4787,7 +4787,7 @@
         <v>79</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>163</v>
@@ -4810,7 +4810,7 @@
         <v>81</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>163</v>
@@ -4833,7 +4833,7 @@
         <v>83</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>163</v>
@@ -4856,7 +4856,7 @@
         <v>85</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>163</v>
@@ -4879,7 +4879,7 @@
         <v>87</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>163</v>
@@ -4902,7 +4902,7 @@
         <v>89</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>163</v>
@@ -4925,7 +4925,7 @@
         <v>91</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>163</v>
@@ -5040,7 +5040,7 @@
         <v>171</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>169</v>
